--- a/matrix_framework.xlsx
+++ b/matrix_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalpalinski/Desktop/ibe/sored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70555C33-0993-5642-B300-AE0834049658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585C7E87-1038-694E-930B-C04FD0C906B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1420" windowWidth="27840" windowHeight="16600" xr2:uid="{BBA9BD05-A283-C748-960F-11F3BE9A12E4}"/>
+    <workbookView xWindow="1400" yWindow="1360" windowWidth="27840" windowHeight="16600" xr2:uid="{BBA9BD05-A283-C748-960F-11F3BE9A12E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t xml:space="preserve">UCZESTNICTWO umożliwiające pełen rozwój </t>
   </si>
   <si>
-    <t>Dostępność społeczno-emocjonalna oznacza taki sposób organizacji życia szkoły i procesu edukacyjnego, który umożliwia wszystkim uczniom pełne uczestnictwo w relacjach, doświadczeniach i działaniach kształtujących rozwój emocjonalny i społeczny. Oznacza tworzenie środowiska szkolnego, w którym każdy uczeń – niezależnie od indywidualnych cech, potrzeb czy ograniczeń – ma prawo do akceptacji, wsparcia, poczucia bezpieczeństwa i współtworzenia wspólnoty szkolnej.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uczestnictwo i zaangażowanie uczniów </t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">wskaźnik zapisów na studia i ukończenia studiów </t>
+  </si>
+  <si>
+    <t>Dostępność społeczno-emocjonalna oznacza takie kształtowanie środowiska szkolnego i procesu edukacyjnego, który umożliwia wszystkim uczniom pełne uczestnictwo w relacjach, doświadczeniach i działaniach kształtujących rozwój emocjonalny i społeczny. Oznacza tworzenie środowiska szkolnego, w którym każdy uczeń – niezależnie od indywidualnych cech, potrzeb czy ograniczeń – ma prawo do akceptacji, wsparcia, poczucia bezpieczeństwa i współtworzenia wspólnoty szkolnej.</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA80149-B0BB-1949-BFD4-78F23452D507}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,13 +1291,13 @@
         <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1305,13 +1305,13 @@
         <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1319,13 +1319,13 @@
         <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,13 +1333,13 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,13 +1347,13 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,13 +1361,13 @@
         <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1375,13 +1375,13 @@
         <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,83 +1389,83 @@
         <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
